--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="4440" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="margins" sheetId="7" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="sdr_states" sheetId="6" r:id="rId6"/>
     <sheet name="nationalRanking" sheetId="1" r:id="rId7"/>
     <sheet name="source" sheetId="8" r:id="rId8"/>
+    <sheet name="layout" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="314">
   <si>
     <t xml:space="preserve">Minnesota </t>
   </si>
@@ -856,14 +857,125 @@
     <t>no</t>
   </si>
   <si>
-    <t>Source: U.S. Elections Project, Nonprofit VOTE, Minnesota Secretary of State</t>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>margins</t>
+  </si>
+  <si>
+    <t>nationalTurnout</t>
+  </si>
+  <si>
+    <t>sameday</t>
+  </si>
+  <si>
+    <t>battlegrounds</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>sdr_states</t>
+  </si>
+  <si>
+    <t>nationalRanking</t>
+  </si>
+  <si>
+    <t>U.S. Elections Project, Nonprofit VOTE</t>
+  </si>
+  <si>
+    <t>Source: U.S. Elections Project, Nonprofit VOTE</t>
+  </si>
+  <si>
+    <t>National voter turnout ranking by state</t>
+  </si>
+  <si>
+    <t>Same-day registration adoption by state and year</t>
+  </si>
+  <si>
+    <t>National turnout by age bracket, by presidential year 1972-2016</t>
+  </si>
+  <si>
+    <t>Voter turnout in battleground states versus other states by presidential election year</t>
+  </si>
+  <si>
+    <t>Voter turnout in states with same-day registration versus those without it</t>
+  </si>
+  <si>
+    <t>National voter turnout in presidential years from 1972-2016</t>
+  </si>
+  <si>
+    <t>Voter turnout and two-party vote margins by state, 2016</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>State abbrevation</t>
+  </si>
+  <si>
+    <t>Popular vote</t>
+  </si>
+  <si>
+    <t>Victory margin</t>
+  </si>
+  <si>
+    <t>Democrat vote percentage</t>
+  </si>
+  <si>
+    <t>Republican vote percentage</t>
+  </si>
+  <si>
+    <t>Voter turnout</t>
+  </si>
+  <si>
+    <t>Margin of victory percentage</t>
+  </si>
+  <si>
+    <t>Does the state have same-day voter registration?</t>
+  </si>
+  <si>
+    <t>Election year</t>
+  </si>
+  <si>
+    <t>Turnout in states without same-day voter registration</t>
+  </si>
+  <si>
+    <t>Turnout in states with same-day voter registration</t>
+  </si>
+  <si>
+    <t>Battleground state turnout</t>
+  </si>
+  <si>
+    <t>Non-battleground state turnout</t>
+  </si>
+  <si>
+    <t>Turnout among those aged 30 or older</t>
+  </si>
+  <si>
+    <t>Turnout among those aged 18-29</t>
+  </si>
+  <si>
+    <t>Year same-day voter registration was instituted</t>
+  </si>
+  <si>
+    <t>National voter turnout ranking in 2016</t>
+  </si>
+  <si>
+    <t>National voter turnout ranking in 2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -914,6 +1026,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1067,7 +1187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1093,8 +1213,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1169,8 +1347,9 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1184,6 +1363,35 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1194,6 +1402,35 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="15"/>
   </cellStyles>
@@ -1527,7 +1764,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3067,7 +3304,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3191,7 +3428,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3289,7 +3526,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3362,6 +3599,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3375,7 +3613,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3528,6 +3766,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3541,7 +3780,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3700,6 +3939,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3713,7 +3953,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4630,26 +4870,394 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="70.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="30" customFormat="1">
+      <c r="A6" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="30" customFormat="1">
+      <c r="A2" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
